--- a/week2/product.xlsx
+++ b/week2/product.xlsx
@@ -418,7 +418,7 @@
         <v>Mouse</v>
       </c>
       <c r="E2" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Car</v>
       </c>
       <c r="E3" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="4">
@@ -452,7 +452,7 @@
         <v>Hat</v>
       </c>
       <c r="E4" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>Mouse</v>
       </c>
       <c r="E5" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>Pants</v>
       </c>
       <c r="E6" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>Hat</v>
       </c>
       <c r="E7" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="8">
@@ -520,7 +520,7 @@
         <v>Fish</v>
       </c>
       <c r="E8" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="9">
@@ -537,7 +537,7 @@
         <v>Tuna</v>
       </c>
       <c r="E9" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="10">
@@ -554,7 +554,7 @@
         <v>Bike</v>
       </c>
       <c r="E10" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="11">
@@ -571,7 +571,7 @@
         <v>Towels</v>
       </c>
       <c r="E11" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>Keyboard</v>
       </c>
       <c r="E12" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="13">
@@ -605,7 +605,7 @@
         <v>Chicken</v>
       </c>
       <c r="E13" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="14">
@@ -622,7 +622,7 @@
         <v>Car</v>
       </c>
       <c r="E14" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="15">
@@ -639,7 +639,7 @@
         <v>Soap</v>
       </c>
       <c r="E15" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="16">
@@ -656,7 +656,7 @@
         <v>Ball</v>
       </c>
       <c r="E16" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>Pizza</v>
       </c>
       <c r="E17" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>Fish</v>
       </c>
       <c r="E18" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         <v>Pants</v>
       </c>
       <c r="E19" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="20">
@@ -724,7 +724,7 @@
         <v>Shoes</v>
       </c>
       <c r="E20" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="21">
@@ -741,7 +741,7 @@
         <v>Computer</v>
       </c>
       <c r="E21" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="22">
@@ -758,7 +758,7 @@
         <v>Tuna</v>
       </c>
       <c r="E22" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="23">
@@ -775,7 +775,7 @@
         <v>Car</v>
       </c>
       <c r="E23" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         <v>Chicken</v>
       </c>
       <c r="E24" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="25">
@@ -809,7 +809,7 @@
         <v>Pants</v>
       </c>
       <c r="E25" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="26">
@@ -826,7 +826,7 @@
         <v>Fish</v>
       </c>
       <c r="E26" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="27">
@@ -843,7 +843,7 @@
         <v>Hat</v>
       </c>
       <c r="E27" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="28">
@@ -860,7 +860,7 @@
         <v>Gloves</v>
       </c>
       <c r="E28" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="29">
@@ -877,7 +877,7 @@
         <v>Towels</v>
       </c>
       <c r="E29" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="30">
@@ -894,7 +894,7 @@
         <v>Chips</v>
       </c>
       <c r="E30" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="31">
@@ -911,7 +911,7 @@
         <v>Pants</v>
       </c>
       <c r="E31" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="32">
@@ -928,7 +928,7 @@
         <v>Pizza</v>
       </c>
       <c r="E32" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="33">
@@ -945,7 +945,7 @@
         <v>Keyboard</v>
       </c>
       <c r="E33" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="34">
@@ -962,7 +962,7 @@
         <v>Ball</v>
       </c>
       <c r="E34" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="35">
@@ -979,7 +979,7 @@
         <v>Salad</v>
       </c>
       <c r="E35" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="36">
@@ -996,7 +996,7 @@
         <v>Soap</v>
       </c>
       <c r="E36" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="37">
@@ -1013,7 +1013,7 @@
         <v>Soap</v>
       </c>
       <c r="E37" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="38">
@@ -1030,7 +1030,7 @@
         <v>Ball</v>
       </c>
       <c r="E38" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="39">
@@ -1047,7 +1047,7 @@
         <v>Keyboard</v>
       </c>
       <c r="E39" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="40">
@@ -1064,7 +1064,7 @@
         <v>Ball</v>
       </c>
       <c r="E40" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="41">
@@ -1081,7 +1081,7 @@
         <v>Salad</v>
       </c>
       <c r="E41" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="42">
@@ -1098,7 +1098,7 @@
         <v>Table</v>
       </c>
       <c r="E42" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="43">
@@ -1115,7 +1115,7 @@
         <v>Shoes</v>
       </c>
       <c r="E43" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="44">
@@ -1132,7 +1132,7 @@
         <v>Ball</v>
       </c>
       <c r="E44" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="45">
@@ -1149,7 +1149,7 @@
         <v>Pizza</v>
       </c>
       <c r="E45" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="46">
@@ -1166,7 +1166,7 @@
         <v>Gloves</v>
       </c>
       <c r="E46" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>Salad</v>
       </c>
       <c r="E47" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="48">
@@ -1200,7 +1200,7 @@
         <v>Keyboard</v>
       </c>
       <c r="E48" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="49">
@@ -1217,7 +1217,7 @@
         <v>Tuna</v>
       </c>
       <c r="E49" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="50">
@@ -1234,7 +1234,7 @@
         <v>Car</v>
       </c>
       <c r="E50" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
     <row r="51">
@@ -1251,7 +1251,7 @@
         <v>Pants</v>
       </c>
       <c r="E51" t="str">
-        <v>00/31/2017</v>
+        <v>12/31/2017</v>
       </c>
     </row>
   </sheetData>
